--- a/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.78486018626118</v>
+        <v>12.7760781446554</v>
       </c>
       <c r="C11" t="n">
-        <v>44.10228843899313</v>
+        <v>44.07913170073139</v>
       </c>
       <c r="D11" t="n">
-        <v>53.71994855771476</v>
+        <v>53.68112098140048</v>
       </c>
     </row>
     <row r="12">
